--- a/scrapper/utils/web.xlsx
+++ b/scrapper/utils/web.xlsx
@@ -412,7 +412,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -444,10 +444,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -457,6 +460,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,15 +772,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="67.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="52.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="67.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="52.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -782,7 +788,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -790,7 +796,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -798,7 +804,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -806,7 +812,7 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -814,7 +820,7 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -822,7 +828,7 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -830,7 +836,7 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -838,7 +844,7 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -846,7 +852,7 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -854,7 +860,7 @@
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -862,7 +868,7 @@
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -870,7 +876,7 @@
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -878,7 +884,7 @@
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -886,7 +892,7 @@
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -894,7 +900,7 @@
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -902,7 +908,7 @@
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -910,7 +916,7 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -918,7 +924,7 @@
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -926,7 +932,7 @@
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -934,7 +940,7 @@
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -942,7 +948,7 @@
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -950,7 +956,7 @@
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -958,7 +964,7 @@
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -966,7 +972,7 @@
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -974,7 +980,7 @@
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -982,7 +988,7 @@
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -990,7 +996,7 @@
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -998,7 +1004,7 @@
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1006,7 +1012,7 @@
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1014,7 +1020,7 @@
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1022,7 +1028,7 @@
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1030,7 +1036,7 @@
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1038,7 +1044,7 @@
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1046,7 +1052,7 @@
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1054,7 +1060,7 @@
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1062,7 +1068,7 @@
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1070,7 +1076,7 @@
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1078,7 +1084,7 @@
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1086,7 +1092,7 @@
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1094,7 +1100,7 @@
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1102,7 +1108,7 @@
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1110,7 +1116,7 @@
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1118,7 +1124,7 @@
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1126,7 +1132,7 @@
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1134,7 +1140,7 @@
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1142,7 +1148,7 @@
       <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1150,7 +1156,7 @@
       <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1158,7 +1164,7 @@
       <c r="A49" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1166,7 +1172,7 @@
       <c r="A50" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1174,7 +1180,7 @@
       <c r="A51" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1182,7 +1188,7 @@
       <c r="A52" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1190,7 +1196,7 @@
       <c r="A53" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1198,7 +1204,7 @@
       <c r="A54" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1206,15 +1212,15 @@
       <c r="A55" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1222,7 +1228,7 @@
       <c r="A57" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1230,7 +1236,7 @@
       <c r="A58" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1238,7 +1244,7 @@
       <c r="A59" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1246,7 +1252,7 @@
       <c r="A60" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1254,7 +1260,7 @@
       <c r="A61" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1262,7 +1268,7 @@
       <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1270,7 +1276,7 @@
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>123</v>
       </c>
     </row>

--- a/scrapper/utils/web.xlsx
+++ b/scrapper/utils/web.xlsx
@@ -395,13 +395,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -449,13 +455,13 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -936,7 +942,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="32.25">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
